--- a/exec/RTM.xlsx
+++ b/exec/RTM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\office\SymlexVPNTestCases\exec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C76EEAE-A5AA-4D8E-AF7F-77E8D00B4614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87C583C-934F-46AC-9A9D-98F1DFDF9CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -316,20 +316,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -641,18 +641,18 @@
         <v>32</v>
       </c>
       <c r="B1" s="10"/>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
@@ -692,7 +692,7 @@
       <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="1"/>
@@ -707,8 +707,8 @@
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="1"/>
@@ -723,8 +723,8 @@
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="7"/>
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="1"/>
@@ -739,8 +739,8 @@
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="1"/>
@@ -755,8 +755,8 @@
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="5" t="s">
+      <c r="A7" s="7"/>
+      <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="1"/>
@@ -771,8 +771,8 @@
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="5" t="s">
+      <c r="A8" s="7"/>
+      <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="1"/>
@@ -787,8 +787,8 @@
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="5" t="s">
+      <c r="A9" s="7"/>
+      <c r="B9" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="1"/>
@@ -803,8 +803,8 @@
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="5" t="s">
+      <c r="A10" s="7"/>
+      <c r="B10" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="1"/>
@@ -819,8 +819,8 @@
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="5" t="s">
+      <c r="A11" s="7"/>
+      <c r="B11" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="1"/>
@@ -835,8 +835,8 @@
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="5" t="s">
+      <c r="A12" s="7"/>
+      <c r="B12" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="1"/>
@@ -851,8 +851,8 @@
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="5" t="s">
+      <c r="A13" s="7"/>
+      <c r="B13" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="1"/>
@@ -867,8 +867,8 @@
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="5" t="s">
+      <c r="A14" s="7"/>
+      <c r="B14" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="1"/>
@@ -883,8 +883,8 @@
       <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="5" t="s">
+      <c r="A15" s="7"/>
+      <c r="B15" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C15" s="1"/>
@@ -899,8 +899,8 @@
       <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="5" t="s">
+      <c r="A16" s="7"/>
+      <c r="B16" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C16" s="1"/>
@@ -915,8 +915,8 @@
       <c r="L16" s="1"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="5" t="s">
+      <c r="A17" s="7"/>
+      <c r="B17" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C17" s="1"/>
@@ -931,8 +931,8 @@
       <c r="L17" s="1"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="5" t="s">
+      <c r="A18" s="7"/>
+      <c r="B18" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C18" s="1"/>
@@ -947,8 +947,8 @@
       <c r="L18" s="1"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="5" t="s">
+      <c r="A19" s="7"/>
+      <c r="B19" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="1"/>
@@ -963,8 +963,8 @@
       <c r="L19" s="1"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="5" t="s">
+      <c r="A20" s="7"/>
+      <c r="B20" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C20" s="1"/>
@@ -979,8 +979,8 @@
       <c r="L20" s="1"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="5" t="s">
+      <c r="A21" s="7"/>
+      <c r="B21" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C21" s="1"/>
@@ -995,8 +995,8 @@
       <c r="L21" s="1"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="5" t="s">
+      <c r="A22" s="7"/>
+      <c r="B22" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C22" s="1"/>
@@ -1011,8 +1011,8 @@
       <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="5" t="s">
+      <c r="A23" s="8"/>
+      <c r="B23" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C23" s="1"/>
